--- a/Doc/3.项目规划/李占伟/工作分解结构wbs.xlsx
+++ b/Doc/3.项目规划/李占伟/工作分解结构wbs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -175,7 +175,7 @@
     <t>执行与监控</t>
   </si>
   <si>
-    <t>25个工作日</t>
+    <t>39个工作日</t>
   </si>
   <si>
     <t>组建项目团队</t>
@@ -1298,8 +1298,8 @@
   <sheetPr/>
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2096,7 +2096,7 @@
         <v>44877</v>
       </c>
       <c r="E39" s="5">
-        <v>44901</v>
+        <v>44917</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="15"/>

--- a/Doc/3.项目规划/李占伟/工作分解结构wbs.xlsx
+++ b/Doc/3.项目规划/李占伟/工作分解结构wbs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8820"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="78">
   <si>
     <t>标识号</t>
   </si>
@@ -49,232 +49,855 @@
     <t>启动</t>
   </si>
   <si>
-    <t>4个工作日</t>
-  </si>
-  <si>
-    <t>组建核心团队</t>
-  </si>
-  <si>
-    <t>1个工作日</t>
-  </si>
-  <si>
-    <t>干系人分析</t>
-  </si>
-  <si>
-    <t>里程碑计划</t>
-  </si>
-  <si>
-    <t>制定项目章程</t>
-  </si>
-  <si>
-    <t>项目启动大会</t>
+    <t>5 days</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组建核心团队</t>
+    </r>
+  </si>
+  <si>
+    <t>1 day</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>干系人分析</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>里程碑计划</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>制定项目章程</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目启动大会</t>
+    </r>
   </si>
   <si>
     <t>规划</t>
   </si>
   <si>
-    <t>13个工作日</t>
-  </si>
-  <si>
-    <t>规划范围</t>
-  </si>
-  <si>
-    <t>2个工作日</t>
-  </si>
-  <si>
-    <t>制定需求说明书</t>
-  </si>
-  <si>
-    <t>界面设计</t>
-  </si>
-  <si>
-    <t>详细设计说明书</t>
-  </si>
-  <si>
-    <t>项目范围说明书</t>
-  </si>
-  <si>
-    <t>创建WBS</t>
-  </si>
-  <si>
-    <t>规划时间</t>
-  </si>
-  <si>
-    <t>排列工作包顺序</t>
-  </si>
-  <si>
-    <t>估算资源</t>
-  </si>
-  <si>
-    <t>估算持续时间</t>
-  </si>
-  <si>
-    <t>制定进度计划</t>
-  </si>
-  <si>
-    <t>规划成本</t>
-  </si>
-  <si>
-    <t>项目成本估算</t>
-  </si>
-  <si>
-    <t>项目预算</t>
-  </si>
-  <si>
-    <t>规划质量</t>
-  </si>
-  <si>
-    <t>制定测试计划</t>
-  </si>
-  <si>
-    <t>制定测试用例</t>
-  </si>
-  <si>
-    <t>规划人力资源</t>
-  </si>
-  <si>
-    <t>制定人力资源计划</t>
-  </si>
-  <si>
-    <t>制定人员配备管理计划</t>
-  </si>
-  <si>
-    <t>规划沟通</t>
-  </si>
-  <si>
-    <t>制定沟通管理计划</t>
-  </si>
-  <si>
-    <t>规划采购</t>
-  </si>
-  <si>
-    <t>自制外购分析</t>
-  </si>
-  <si>
-    <t>制定采购文件</t>
-  </si>
-  <si>
-    <t>规划风险</t>
-  </si>
-  <si>
-    <t>3个工作日</t>
-  </si>
-  <si>
-    <t>识别风险</t>
-  </si>
-  <si>
-    <t>风险分析</t>
-  </si>
-  <si>
-    <t>制定风险登记表</t>
-  </si>
-  <si>
-    <t>规划整合</t>
+    <t>16 days</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>规划范围</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>制定需求说明书</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>界面设计</t>
+    </r>
+  </si>
+  <si>
+    <t>2 days</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>详细设计说明书</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目范围说明书</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建WBS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>形成范围基准</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>规划时间</t>
+    </r>
+  </si>
+  <si>
+    <t>3 days</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>排序工作包顺序</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>估算资源</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>估算持续时间</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>制定进度计划</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>形成进度基准</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>规划成本</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目成本估算</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目预算</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>规划质量</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>制定测试计划</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>制定测试用例</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>规划人力资源</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>制定人力资源计划</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>制定人员配备管理计划</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>规划沟通</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>制定沟通管理计划</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>规划风险</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>识别风险</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>风险分析</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>制定风险登记册</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>规划整合</t>
+    </r>
   </si>
   <si>
     <t>执行与监控</t>
   </si>
   <si>
-    <t>39个工作日</t>
-  </si>
-  <si>
-    <t>组建项目团队</t>
-  </si>
-  <si>
-    <t>项目执行</t>
-  </si>
-  <si>
-    <t>18个工作日</t>
-  </si>
-  <si>
-    <t>总模块</t>
-  </si>
-  <si>
-    <t>首页</t>
-  </si>
-  <si>
-    <t>8个工作日</t>
-  </si>
-  <si>
-    <t>注册</t>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>设置环境变量</t>
-  </si>
-  <si>
-    <t>用户中心</t>
-  </si>
-  <si>
-    <t>5个工作日</t>
-  </si>
-  <si>
-    <t>设置代理</t>
-  </si>
-  <si>
-    <t>项目监控</t>
-  </si>
-  <si>
-    <t>6个工作日</t>
-  </si>
-  <si>
-    <t>各项指标监控</t>
-  </si>
-  <si>
-    <t>监控评审</t>
-  </si>
-  <si>
-    <t>变更评审</t>
-  </si>
-  <si>
-    <t>例会</t>
-  </si>
-  <si>
-    <t>管理干系人</t>
-  </si>
-  <si>
-    <t>发布项目信息</t>
-  </si>
-  <si>
-    <t>报告监控指标</t>
-  </si>
-  <si>
-    <t>干系人沟通</t>
-  </si>
-  <si>
-    <t>团队建设</t>
-  </si>
-  <si>
-    <t>12个工作日</t>
-  </si>
-  <si>
-    <t>培训</t>
-  </si>
-  <si>
-    <t>娱乐活动</t>
-  </si>
-  <si>
-    <t>沟通</t>
-  </si>
-  <si>
-    <t>采购</t>
-  </si>
-  <si>
-    <t>项目验收</t>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组建项目团队</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目执行</t>
+    </r>
+  </si>
+  <si>
+    <t>9 days</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户模块</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登录</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>首页</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>训练</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检测</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我的</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目监控</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>各项指标监控</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>监控评审</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变更评审</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>例会</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管理干系人</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发布项目信息</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>报告监控指标</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>干系人沟通</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>团队建设</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>培训</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>娱乐活动</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>沟通</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目验收</t>
+    </r>
   </si>
   <si>
     <t>收尾</t>
   </si>
   <si>
-    <t>项目终验</t>
-  </si>
-  <si>
-    <t>结束采购</t>
-  </si>
-  <si>
-    <t>项目内部收尾</t>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目终验</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目内部收尾</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -287,7 +910,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,12 +919,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF363636"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -454,7 +1094,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -463,7 +1103,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0B9796"/>
+        <fgColor rgb="FFDFE3E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,12 +1235,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -654,7 +1318,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -674,6 +1338,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB1BBCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB1BBCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB1BBCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB1BBCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -783,10 +1462,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -795,103 +1474,91 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -900,16 +1567,16 @@
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -918,14 +1585,26 @@
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -935,46 +1614,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1296,10 +1981,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1343,1324 +2028,1358 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="5">
-        <v>44859</v>
-      </c>
-      <c r="E2" s="5">
-        <v>44863</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="12"/>
+      <c r="I2" s="9"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5">
         <v>44859</v>
       </c>
-      <c r="E3" s="6">
-        <v>44859</v>
-      </c>
+      <c r="E3" s="5">
+        <v>44865</v>
+      </c>
+      <c r="F3" s="6"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="13"/>
+      <c r="I3" s="10"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="6">
-        <v>44860</v>
-      </c>
-      <c r="E4" s="6">
-        <v>44860</v>
-      </c>
+      <c r="B4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="8">
+        <v>44859</v>
+      </c>
+      <c r="E4" s="8">
+        <v>44859</v>
+      </c>
+      <c r="F4" s="6"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="14"/>
+      <c r="I4" s="11"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="6">
-        <v>44861</v>
-      </c>
-      <c r="E5" s="6">
-        <v>44861</v>
-      </c>
+      <c r="B5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="8">
+        <v>44860</v>
+      </c>
+      <c r="E5" s="8">
+        <v>44860</v>
+      </c>
+      <c r="F5" s="6"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="13"/>
+      <c r="I5" s="12"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="6">
-        <v>44862</v>
-      </c>
-      <c r="E6" s="6">
-        <v>44862</v>
-      </c>
+      <c r="B6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="8">
+        <v>44861</v>
+      </c>
+      <c r="E6" s="8">
+        <v>44861</v>
+      </c>
+      <c r="F6" s="6"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="13"/>
+      <c r="I6" s="12"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="6">
-        <v>44863</v>
-      </c>
-      <c r="E7" s="6">
-        <v>44863</v>
-      </c>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="8">
+        <v>44862</v>
+      </c>
+      <c r="E7" s="8">
+        <v>44862</v>
+      </c>
+      <c r="F7" s="7"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="13"/>
+      <c r="I7" s="12"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="5">
-        <v>44864</v>
-      </c>
-      <c r="E8" s="5">
-        <v>44876</v>
-      </c>
+      <c r="B8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="8">
+        <v>44865</v>
+      </c>
+      <c r="E8" s="8">
+        <v>44865</v>
+      </c>
+      <c r="F8" s="7"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="15"/>
+      <c r="I8" s="13"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>20</v>
+      <c r="B9" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" s="5">
-        <v>44864</v>
+        <v>44866</v>
       </c>
       <c r="E9" s="5">
-        <v>44865</v>
-      </c>
+        <v>44887</v>
+      </c>
+      <c r="F9" s="6"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="15"/>
+      <c r="I9" s="14"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="8">
-        <v>44864</v>
-      </c>
-      <c r="E10" s="8">
-        <v>44864</v>
-      </c>
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="5">
+        <v>44866</v>
+      </c>
+      <c r="E10" s="5">
+        <v>44872</v>
+      </c>
+      <c r="F10" s="6"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="13"/>
+      <c r="I10" s="14"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="C11" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D11" s="8">
-        <v>44864</v>
+        <v>44866</v>
       </c>
       <c r="E11" s="8">
-        <v>44865</v>
-      </c>
+        <v>44866</v>
+      </c>
+      <c r="F11" s="7"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="13"/>
+      <c r="I11" s="12"/>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
+      <c r="B12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="D12" s="8">
-        <v>44865</v>
+        <v>44867</v>
       </c>
       <c r="E12" s="8">
-        <v>44865</v>
-      </c>
+        <v>44868</v>
+      </c>
+      <c r="F12" s="7"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="13"/>
+      <c r="I12" s="12"/>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="8">
-        <v>44865</v>
+        <v>44868</v>
       </c>
       <c r="E13" s="8">
-        <v>44865</v>
-      </c>
+        <v>44868</v>
+      </c>
+      <c r="F13" s="7"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="13"/>
+      <c r="I13" s="12"/>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="8">
-        <v>44865</v>
+        <v>44868</v>
       </c>
       <c r="E14" s="8">
-        <v>44865</v>
-      </c>
+        <v>44868</v>
+      </c>
+      <c r="F14" s="7"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="13"/>
+      <c r="I14" s="12"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="5">
-        <v>44866</v>
-      </c>
-      <c r="E15" s="5">
-        <v>44867</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="8">
+        <v>44869</v>
+      </c>
+      <c r="E15" s="8">
+        <v>44869</v>
+      </c>
+      <c r="F15" s="7"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="15"/>
+      <c r="I15" s="13"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="2">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="8">
-        <v>44866</v>
+        <v>44872</v>
       </c>
       <c r="E16" s="8">
-        <v>44866</v>
-      </c>
+        <v>44872</v>
+      </c>
+      <c r="F16" s="7"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="16"/>
+      <c r="I16" s="13"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2">
-        <v>17</v>
-      </c>
-      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="8">
-        <v>44866</v>
-      </c>
-      <c r="E17" s="8">
-        <v>44866</v>
-      </c>
+      <c r="D17" s="5">
+        <v>44873</v>
+      </c>
+      <c r="E17" s="5">
+        <v>44875</v>
+      </c>
+      <c r="F17" s="6"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="13"/>
+      <c r="I17" s="14"/>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="2">
-        <v>18</v>
-      </c>
-      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="8">
-        <v>44867</v>
+        <v>44873</v>
       </c>
       <c r="E18" s="8">
-        <v>44867</v>
-      </c>
+        <v>44873</v>
+      </c>
+      <c r="F18" s="7"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="13"/>
+      <c r="I18" s="12"/>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="2">
-        <v>19</v>
-      </c>
-      <c r="B19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="8">
-        <v>44867</v>
+        <v>44873</v>
       </c>
       <c r="E19" s="8">
-        <v>44867</v>
-      </c>
+        <v>44873</v>
+      </c>
+      <c r="F19" s="6"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="13"/>
+      <c r="I19" s="12"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="5">
-        <v>44868</v>
-      </c>
-      <c r="E20" s="5">
-        <v>44868</v>
-      </c>
+      <c r="C20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="8">
+        <v>44874</v>
+      </c>
+      <c r="E20" s="8">
+        <v>44874</v>
+      </c>
+      <c r="F20" s="6"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="15"/>
+      <c r="I20" s="13"/>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="2">
-        <v>22</v>
-      </c>
-      <c r="B21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="8">
-        <v>44868</v>
+        <v>44875</v>
       </c>
       <c r="E21" s="8">
-        <v>44868</v>
-      </c>
+        <v>44875</v>
+      </c>
+      <c r="F21" s="7"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="16"/>
+      <c r="I21" s="15"/>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="2">
-        <v>23</v>
-      </c>
-      <c r="B22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="8">
-        <v>44868</v>
+        <v>44875</v>
       </c>
       <c r="E22" s="8">
-        <v>44868</v>
-      </c>
+        <v>44875</v>
+      </c>
+      <c r="F22" s="6"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="13"/>
+      <c r="I22" s="12"/>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="2">
-        <v>25</v>
-      </c>
-      <c r="B23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D23" s="5">
-        <v>44869</v>
+        <v>44876</v>
       </c>
       <c r="E23" s="5">
-        <v>44869</v>
-      </c>
+        <v>44879</v>
+      </c>
+      <c r="F23" s="6"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="15"/>
+      <c r="I23" s="14"/>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="2">
-        <v>26</v>
-      </c>
-      <c r="B24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="8">
-        <v>44869</v>
+        <v>44876</v>
       </c>
       <c r="E24" s="8">
-        <v>44869</v>
-      </c>
+        <v>44876</v>
+      </c>
+      <c r="F24" s="6"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="16"/>
+      <c r="I24" s="15"/>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="2">
-        <v>27</v>
-      </c>
-      <c r="B25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="8">
-        <v>44869</v>
+        <v>44876</v>
       </c>
       <c r="E25" s="8">
-        <v>44869</v>
-      </c>
+        <v>44876</v>
+      </c>
+      <c r="F25" s="6"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="13"/>
+      <c r="I25" s="12"/>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="2">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="5">
-        <v>44870</v>
-      </c>
-      <c r="E26" s="5">
-        <v>44870</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="8">
+        <v>44879</v>
+      </c>
+      <c r="E26" s="8">
+        <v>44879</v>
+      </c>
+      <c r="F26" s="7"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="15"/>
+      <c r="I26" s="13"/>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="2">
-        <v>29</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="8">
-        <v>44870</v>
-      </c>
-      <c r="E27" s="8">
-        <v>44870</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="5">
+        <v>44880</v>
+      </c>
+      <c r="E27" s="5">
+        <v>44881</v>
+      </c>
+      <c r="F27" s="6"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="16"/>
+      <c r="I27" s="14"/>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="2">
-        <v>30</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="8">
-        <v>44870</v>
+        <v>44880</v>
       </c>
       <c r="E28" s="8">
-        <v>44870</v>
-      </c>
+        <v>44880</v>
+      </c>
+      <c r="F28" s="7"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="13"/>
+      <c r="I28" s="12"/>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="5">
-        <v>44871</v>
-      </c>
-      <c r="E29" s="5">
-        <v>44871</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="8">
+        <v>44881</v>
+      </c>
+      <c r="E29" s="8">
+        <v>44881</v>
+      </c>
+      <c r="F29" s="7"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="15"/>
+      <c r="I29" s="13"/>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="2">
-        <v>32</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="8">
-        <v>44871</v>
-      </c>
-      <c r="E30" s="8">
-        <v>44871</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="5">
+        <v>44882</v>
+      </c>
+      <c r="E30" s="5">
+        <v>44882</v>
+      </c>
+      <c r="F30" s="6"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="16"/>
+      <c r="I30" s="14"/>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="2">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="8">
+        <v>44851</v>
+      </c>
+      <c r="E31" s="8">
+        <v>44851</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" ht="28.8" spans="1:10">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="5">
-        <v>44872</v>
-      </c>
-      <c r="E31" s="5">
-        <v>44873</v>
-      </c>
-      <c r="H31" s="2"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="2">
-        <v>34</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="8">
-        <v>44872</v>
+        <v>44851</v>
       </c>
       <c r="E32" s="8">
-        <v>44872</v>
-      </c>
+        <v>44851</v>
+      </c>
+      <c r="F32" s="6"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="16"/>
+      <c r="I32" s="15"/>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="2">
-        <v>35</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="8">
-        <v>44873</v>
-      </c>
-      <c r="E33" s="8">
-        <v>44873</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="5">
+        <v>44883</v>
+      </c>
+      <c r="E33" s="5">
+        <v>44883</v>
+      </c>
+      <c r="F33" s="6"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="13"/>
+      <c r="I33" s="14"/>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="2">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="5">
-        <v>44874</v>
-      </c>
-      <c r="E34" s="5">
-        <v>44876</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="8">
+        <v>44883</v>
+      </c>
+      <c r="E34" s="8">
+        <v>44883</v>
+      </c>
+      <c r="F34" s="6"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="15"/>
+      <c r="I34" s="13"/>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="2">
-        <v>37</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="8">
-        <v>44874</v>
-      </c>
-      <c r="E35" s="8">
-        <v>44874</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="5">
+        <v>44886</v>
+      </c>
+      <c r="E35" s="5">
+        <v>44887</v>
+      </c>
+      <c r="F35" s="6"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="16"/>
+      <c r="I35" s="14"/>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="2">
-        <v>38</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="8">
-        <v>44874</v>
+        <v>44886</v>
       </c>
       <c r="E36" s="8">
-        <v>44874</v>
-      </c>
+        <v>44886</v>
+      </c>
+      <c r="F36" s="7"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="13"/>
+      <c r="I36" s="12"/>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="2">
-        <v>39</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="8">
-        <v>44875</v>
+        <v>44886</v>
       </c>
       <c r="E37" s="8">
-        <v>44875</v>
-      </c>
+        <v>44886</v>
+      </c>
+      <c r="F37" s="6"/>
       <c r="H37" s="2"/>
-      <c r="I37" s="13"/>
+      <c r="I37" s="12"/>
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="2">
-        <v>40</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="8">
-        <v>44876</v>
+        <v>44887</v>
       </c>
       <c r="E38" s="8">
-        <v>44876</v>
-      </c>
+        <v>44887</v>
+      </c>
+      <c r="F38" s="7"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="13"/>
+      <c r="I38" s="12"/>
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="2">
-        <v>41</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" s="5">
-        <v>44877</v>
-      </c>
-      <c r="E39" s="5">
-        <v>44917</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="8">
+        <v>44887</v>
+      </c>
+      <c r="E39" s="8">
+        <v>44887</v>
+      </c>
+      <c r="F39" s="6"/>
       <c r="H39" s="2"/>
-      <c r="I39" s="15"/>
+      <c r="I39" s="13"/>
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="2">
-        <v>42</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="8">
-        <v>44877</v>
-      </c>
-      <c r="E40" s="8">
-        <v>44877</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="5">
+        <v>44888</v>
+      </c>
+      <c r="E40" s="5">
+        <v>44909</v>
+      </c>
+      <c r="F40" s="6"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="16"/>
+      <c r="I40" s="14"/>
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" s="5">
-        <v>44878</v>
-      </c>
-      <c r="E41" s="5">
-        <v>44896</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="8">
+        <v>44888</v>
+      </c>
+      <c r="E41" s="8">
+        <v>44888</v>
+      </c>
+      <c r="F41" s="7"/>
       <c r="H41" s="2"/>
-      <c r="I41" s="15"/>
+      <c r="I41" s="13"/>
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="2">
-        <v>44</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>57</v>
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D42" s="5">
-        <v>44878</v>
+        <v>44889</v>
       </c>
       <c r="E42" s="5">
-        <v>44896</v>
-      </c>
+        <v>44901</v>
+      </c>
+      <c r="F42" s="6"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="15"/>
+      <c r="I42" s="14"/>
       <c r="J42" s="2"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="2">
-        <v>45</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" s="8">
-        <v>44878</v>
-      </c>
-      <c r="E43" s="8">
-        <v>44886</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="5">
+        <v>44889</v>
+      </c>
+      <c r="E43" s="5">
+        <v>44901</v>
+      </c>
+      <c r="F43" s="6"/>
       <c r="H43" s="2"/>
       <c r="I43" s="16"/>
       <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="2">
-        <v>46</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>21</v>
+        <v>43</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="D44" s="8">
-        <v>44886</v>
+        <v>44889</v>
       </c>
       <c r="E44" s="8">
-        <v>44887</v>
-      </c>
+        <v>44890</v>
+      </c>
+      <c r="F44" s="7"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="13"/>
+      <c r="I44" s="12"/>
       <c r="J44" s="2"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="2">
-        <v>47</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="D45" s="8">
-        <v>44887</v>
+        <v>44893</v>
       </c>
       <c r="E45" s="8">
-        <v>44888</v>
-      </c>
+        <v>44894</v>
+      </c>
+      <c r="F45" s="7"/>
       <c r="H45" s="2"/>
-      <c r="I45" s="13"/>
+      <c r="I45" s="12"/>
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="2">
-        <v>48</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="D46" s="8">
-        <v>44888</v>
+        <v>44895</v>
       </c>
       <c r="E46" s="8">
-        <v>44890</v>
-      </c>
+        <v>44896</v>
+      </c>
+      <c r="F46" s="7"/>
       <c r="H46" s="2"/>
-      <c r="I46" s="13"/>
+      <c r="I46" s="12"/>
       <c r="J46" s="2"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="2">
-        <v>49</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>64</v>
+        <v>46</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="D47" s="8">
-        <v>44890</v>
+        <v>44897</v>
       </c>
       <c r="E47" s="8">
-        <v>44894</v>
-      </c>
+        <v>44897</v>
+      </c>
+      <c r="F47" s="7"/>
       <c r="H47" s="2"/>
-      <c r="I47" s="13"/>
+      <c r="I47" s="12"/>
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="2">
-        <v>50</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="B48" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="D48" s="8">
-        <v>44894</v>
+        <v>44900</v>
       </c>
       <c r="E48" s="8">
-        <v>44896</v>
-      </c>
+        <v>44901</v>
+      </c>
+      <c r="F48" s="7"/>
       <c r="H48" s="2"/>
-      <c r="I48" s="13"/>
+      <c r="I48" s="12"/>
       <c r="J48" s="2"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="2">
-        <v>51</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>66</v>
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="D49" s="5">
-        <v>44897</v>
+        <v>44902</v>
       </c>
       <c r="E49" s="5">
-        <v>44902</v>
-      </c>
+        <v>44904</v>
+      </c>
+      <c r="F49" s="6"/>
       <c r="H49" s="2"/>
-      <c r="I49" s="15"/>
+      <c r="I49" s="14"/>
       <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="2">
-        <v>52</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="D50" s="8">
-        <v>44897</v>
+        <v>44902</v>
       </c>
       <c r="E50" s="8">
-        <v>44899</v>
-      </c>
+        <v>44902</v>
+      </c>
+      <c r="F50" s="7"/>
       <c r="H50" s="2"/>
-      <c r="I50" s="16"/>
+      <c r="I50" s="15"/>
       <c r="J50" s="2"/>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="2">
-        <v>53</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C51" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="8">
-        <v>44900</v>
+        <v>44903</v>
       </c>
       <c r="E51" s="8">
-        <v>44900</v>
-      </c>
+        <v>44903</v>
+      </c>
+      <c r="F51" s="6"/>
       <c r="H51" s="2"/>
-      <c r="I51" s="13"/>
+      <c r="I51" s="12"/>
       <c r="J51" s="2"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="2">
-        <v>54</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="8">
-        <v>44901</v>
+        <v>44904</v>
       </c>
       <c r="E52" s="8">
-        <v>44901</v>
-      </c>
+        <v>44904</v>
+      </c>
+      <c r="F52" s="7"/>
       <c r="H52" s="2"/>
-      <c r="I52" s="13"/>
+      <c r="I52" s="12"/>
       <c r="J52" s="2"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="2">
-        <v>55</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C53" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="8">
-        <v>44902</v>
+        <v>44904</v>
       </c>
       <c r="E53" s="8">
-        <v>44902</v>
-      </c>
+        <v>44904</v>
+      </c>
+      <c r="F53" s="7"/>
       <c r="H53" s="2"/>
-      <c r="I53" s="13"/>
+      <c r="I53" s="12"/>
       <c r="J53" s="2"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="2">
-        <v>56</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>72</v>
+        <v>53</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="D54" s="5">
-        <v>44903</v>
+        <v>44907</v>
       </c>
       <c r="E54" s="5">
-        <v>44905</v>
-      </c>
+        <v>44907</v>
+      </c>
+      <c r="F54" s="6"/>
       <c r="H54" s="2"/>
-      <c r="I54" s="15"/>
+      <c r="I54" s="14"/>
       <c r="J54" s="2"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="2">
-        <v>57</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C55" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="8">
-        <v>44903</v>
+        <v>44907</v>
       </c>
       <c r="E55" s="8">
-        <v>44903</v>
-      </c>
+        <v>44907</v>
+      </c>
+      <c r="F55" s="7"/>
       <c r="H55" s="2"/>
-      <c r="I55" s="16"/>
+      <c r="I55" s="15"/>
       <c r="J55" s="2"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="2">
-        <v>58</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D56" s="8">
-        <v>44904</v>
+        <v>44907</v>
       </c>
       <c r="E56" s="8">
-        <v>44904</v>
-      </c>
+        <v>44907</v>
+      </c>
+      <c r="F56" s="7"/>
       <c r="H56" s="2"/>
-      <c r="I56" s="13"/>
+      <c r="I56" s="12"/>
       <c r="J56" s="2"/>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="2">
-        <v>59</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="8">
-        <v>44905</v>
+        <v>44907</v>
       </c>
       <c r="E57" s="8">
-        <v>44905</v>
-      </c>
+        <v>44907</v>
+      </c>
+      <c r="F57" s="7"/>
       <c r="H57" s="2"/>
-      <c r="I57" s="13"/>
+      <c r="I57" s="12"/>
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="2">
-        <v>60</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>76</v>
+        <v>57</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="D58" s="5">
-        <v>44906</v>
+        <v>44908</v>
       </c>
       <c r="E58" s="5">
-        <v>44917</v>
-      </c>
+        <v>44909</v>
+      </c>
+      <c r="F58" s="6"/>
       <c r="H58" s="2"/>
-      <c r="I58" s="15"/>
+      <c r="I58" s="14"/>
       <c r="J58" s="2"/>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="2">
-        <v>61</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>11</v>
+        <v>58</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="D59" s="8">
-        <v>44906</v>
+        <v>44908</v>
       </c>
       <c r="E59" s="8">
-        <v>44909</v>
-      </c>
+        <v>44908</v>
+      </c>
+      <c r="F59" s="7"/>
       <c r="H59" s="2"/>
-      <c r="I59" s="16"/>
+      <c r="I59" s="15"/>
       <c r="J59" s="2"/>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="2">
-        <v>62</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>21</v>
+        <v>59</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="D60" s="8">
-        <v>44910</v>
+        <v>44908</v>
       </c>
       <c r="E60" s="8">
-        <v>44911</v>
-      </c>
+        <v>44908</v>
+      </c>
+      <c r="F60" s="7"/>
       <c r="H60" s="2"/>
-      <c r="I60" s="13"/>
+      <c r="I60" s="12"/>
       <c r="J60" s="2"/>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="2">
-        <v>63</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>21</v>
+        <v>60</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="D61" s="8">
-        <v>44912</v>
+        <v>44909</v>
       </c>
       <c r="E61" s="8">
-        <v>44913</v>
-      </c>
+        <v>44909</v>
+      </c>
+      <c r="F61" s="7"/>
       <c r="H61" s="2"/>
-      <c r="I61" s="13"/>
+      <c r="I61" s="12"/>
       <c r="J61" s="2"/>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="2">
-        <v>64</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="D62" s="8">
-        <v>44914</v>
+        <v>44909</v>
       </c>
       <c r="E62" s="8">
-        <v>44916</v>
-      </c>
+        <v>44909</v>
+      </c>
+      <c r="F62" s="7"/>
       <c r="H62" s="2"/>
-      <c r="I62" s="13"/>
+      <c r="I62" s="12"/>
       <c r="J62" s="2"/>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="2">
-        <v>65</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="8">
-        <v>44917</v>
-      </c>
-      <c r="E63" s="8">
-        <v>44917</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" s="5">
+        <v>44910</v>
+      </c>
+      <c r="E63" s="5">
+        <v>44914</v>
+      </c>
+      <c r="F63" s="6"/>
       <c r="H63" s="2"/>
-      <c r="I63" s="13"/>
+      <c r="I63" s="14"/>
       <c r="J63" s="2"/>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="2">
-        <v>66</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64" s="5">
-        <v>44918</v>
-      </c>
-      <c r="E64" s="5">
-        <v>44919</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="8">
+        <v>44910</v>
+      </c>
+      <c r="E64" s="8">
+        <v>44911</v>
+      </c>
+      <c r="F64" s="7"/>
       <c r="H64" s="2"/>
-      <c r="I64" s="15"/>
+      <c r="I64" s="13"/>
       <c r="J64" s="2"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="2">
-        <v>67</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C65" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D65" s="8">
-        <v>44918</v>
+        <v>44914</v>
       </c>
       <c r="E65" s="8">
-        <v>44918</v>
-      </c>
+        <v>44914</v>
+      </c>
+      <c r="F65" s="7"/>
       <c r="H65" s="2"/>
-      <c r="I65" s="13"/>
+      <c r="I65" s="12"/>
       <c r="J65" s="2"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="2">
-        <v>68</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="8">
-        <v>44918</v>
-      </c>
-      <c r="E66" s="8">
-        <v>44918</v>
-      </c>
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
       <c r="H66" s="2"/>
-      <c r="I66" s="13"/>
+      <c r="I66" s="12"/>
       <c r="J66" s="2"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="2">
-        <v>69</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="8">
-        <v>44919</v>
-      </c>
-      <c r="E67" s="8">
-        <v>44919</v>
-      </c>
-      <c r="G67" s="8"/>
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="G67" s="17"/>
       <c r="H67" s="2"/>
-      <c r="I67" s="13"/>
+      <c r="I67" s="12"/>
       <c r="J67" s="2"/>
     </row>
     <row r="68" spans="3:10">
@@ -2668,8 +3387,14 @@
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="H68" s="2"/>
-      <c r="I68" s="13"/>
+      <c r="I68" s="12"/>
       <c r="J68" s="2"/>
+    </row>
+    <row r="69" spans="9:9">
+      <c r="I69" s="18"/>
+    </row>
+    <row r="70" spans="9:9">
+      <c r="I70" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Doc/3.项目规划/李占伟/工作分解结构wbs.xlsx
+++ b/Doc/3.项目规划/李占伟/工作分解结构wbs.xlsx
@@ -53,6 +53,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">   </t>
     </r>
     <r>
@@ -70,6 +76,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">   </t>
     </r>
     <r>
@@ -84,6 +96,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">   </t>
     </r>
     <r>
@@ -98,6 +116,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">   </t>
     </r>
     <r>
@@ -112,6 +136,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">   </t>
     </r>
     <r>
@@ -132,6 +162,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">   </t>
     </r>
     <r>
@@ -147,6 +184,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -161,6 +204,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -178,6 +227,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -192,6 +247,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -206,6 +267,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -220,6 +287,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -234,6 +307,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">   </t>
     </r>
     <r>
@@ -252,6 +332,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -266,6 +352,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -280,6 +372,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -294,6 +392,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -308,6 +412,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -322,6 +432,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">   </t>
     </r>
     <r>
@@ -337,6 +454,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -351,6 +474,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -365,6 +494,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">   </t>
     </r>
     <r>
@@ -380,6 +516,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -394,6 +536,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -408,6 +556,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">   </t>
     </r>
     <r>
@@ -423,6 +578,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -437,6 +598,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -451,6 +618,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">   </t>
     </r>
     <r>
@@ -466,6 +640,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -480,6 +660,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">   </t>
     </r>
     <r>
@@ -495,6 +682,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -509,6 +702,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -523,6 +722,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -537,6 +742,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">   </t>
     </r>
     <r>
@@ -554,6 +765,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">   </t>
     </r>
     <r>
@@ -568,6 +785,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">   </t>
     </r>
     <r>
@@ -586,6 +810,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -601,6 +832,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">         </t>
     </r>
     <r>
@@ -615,6 +852,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">         </t>
     </r>
     <r>
@@ -629,6 +872,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">         </t>
     </r>
     <r>
@@ -643,6 +892,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">         </t>
     </r>
     <r>
@@ -657,6 +912,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">         </t>
     </r>
     <r>
@@ -671,6 +932,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">   </t>
     </r>
     <r>
@@ -686,6 +954,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -700,6 +974,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -714,6 +994,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -728,6 +1014,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -742,6 +1034,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">   </t>
     </r>
     <r>
@@ -757,6 +1056,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -771,6 +1076,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -785,6 +1096,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -799,6 +1116,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">   </t>
     </r>
     <r>
@@ -814,6 +1138,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -828,6 +1158,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -842,6 +1178,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -856,6 +1198,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">   </t>
     </r>
     <r>
@@ -873,6 +1221,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">   </t>
     </r>
     <r>
@@ -887,6 +1241,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">   </t>
     </r>
     <r>
@@ -1094,7 +1454,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1110,18 +1470,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1462,85 +1810,85 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1549,37 +1897,43 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1588,23 +1942,17 @@
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1638,28 +1986,16 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1983,8 +2319,8 @@
   <sheetPr/>
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2077,7 +2413,7 @@
       </c>
       <c r="F4" s="6"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="11"/>
+      <c r="I4" s="9"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10">
@@ -2098,7 +2434,7 @@
       </c>
       <c r="F5" s="6"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="12"/>
+      <c r="I5" s="11"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10">
@@ -2119,7 +2455,7 @@
       </c>
       <c r="F6" s="6"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="12"/>
+      <c r="I6" s="11"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10">
@@ -2140,7 +2476,7 @@
       </c>
       <c r="F7" s="7"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="12"/>
+      <c r="I7" s="11"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10">
@@ -2161,7 +2497,7 @@
       </c>
       <c r="F8" s="7"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="13"/>
+      <c r="I8" s="11"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10">
@@ -2182,7 +2518,7 @@
       </c>
       <c r="F9" s="6"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="14"/>
+      <c r="I9" s="12"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10">
@@ -2203,7 +2539,7 @@
       </c>
       <c r="F10" s="6"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="14"/>
+      <c r="I10" s="12"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10">
@@ -2224,7 +2560,7 @@
       </c>
       <c r="F11" s="7"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="12"/>
+      <c r="I11" s="11"/>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10">
@@ -2245,7 +2581,7 @@
       </c>
       <c r="F12" s="7"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="12"/>
+      <c r="I12" s="11"/>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10">
@@ -2266,7 +2602,7 @@
       </c>
       <c r="F13" s="7"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="12"/>
+      <c r="I13" s="11"/>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10">
@@ -2287,7 +2623,7 @@
       </c>
       <c r="F14" s="7"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="12"/>
+      <c r="I14" s="11"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10">
@@ -2308,7 +2644,7 @@
       </c>
       <c r="F15" s="7"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="13"/>
+      <c r="I15" s="11"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10">
@@ -2329,7 +2665,7 @@
       </c>
       <c r="F16" s="7"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="13"/>
+      <c r="I16" s="11"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10">
@@ -2350,7 +2686,7 @@
       </c>
       <c r="F17" s="6"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="14"/>
+      <c r="I17" s="12"/>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10">
@@ -2371,7 +2707,7 @@
       </c>
       <c r="F18" s="7"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="12"/>
+      <c r="I18" s="11"/>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10">
@@ -2392,7 +2728,7 @@
       </c>
       <c r="F19" s="6"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="12"/>
+      <c r="I19" s="11"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10">
@@ -2413,7 +2749,7 @@
       </c>
       <c r="F20" s="6"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="13"/>
+      <c r="I20" s="11"/>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10">
@@ -2434,7 +2770,7 @@
       </c>
       <c r="F21" s="7"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="15"/>
+      <c r="I21" s="11"/>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10">
@@ -2455,7 +2791,7 @@
       </c>
       <c r="F22" s="6"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="12"/>
+      <c r="I22" s="11"/>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10">
@@ -2476,7 +2812,7 @@
       </c>
       <c r="F23" s="6"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="14"/>
+      <c r="I23" s="12"/>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10">
@@ -2497,7 +2833,7 @@
       </c>
       <c r="F24" s="6"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="15"/>
+      <c r="I24" s="11"/>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10">
@@ -2518,7 +2854,7 @@
       </c>
       <c r="F25" s="6"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="12"/>
+      <c r="I25" s="11"/>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10">
@@ -2539,7 +2875,7 @@
       </c>
       <c r="F26" s="7"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="13"/>
+      <c r="I26" s="11"/>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10">
@@ -2560,7 +2896,7 @@
       </c>
       <c r="F27" s="6"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="14"/>
+      <c r="I27" s="12"/>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10">
@@ -2581,7 +2917,7 @@
       </c>
       <c r="F28" s="7"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="12"/>
+      <c r="I28" s="11"/>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10">
@@ -2602,7 +2938,7 @@
       </c>
       <c r="F29" s="7"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="13"/>
+      <c r="I29" s="11"/>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10">
@@ -2623,7 +2959,7 @@
       </c>
       <c r="F30" s="6"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="14"/>
+      <c r="I30" s="12"/>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10">
@@ -2637,14 +2973,14 @@
         <v>13</v>
       </c>
       <c r="D31" s="8">
-        <v>44851</v>
+        <v>44882</v>
       </c>
       <c r="E31" s="8">
-        <v>44851</v>
+        <v>44882</v>
       </c>
       <c r="F31" s="7"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="13"/>
+      <c r="I31" s="11"/>
       <c r="J31" s="2"/>
     </row>
     <row r="32" ht="28.8" spans="1:10">
@@ -2658,14 +2994,14 @@
         <v>13</v>
       </c>
       <c r="D32" s="8">
-        <v>44851</v>
+        <v>44882</v>
       </c>
       <c r="E32" s="8">
-        <v>44851</v>
+        <v>44882</v>
       </c>
       <c r="F32" s="6"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="15"/>
+      <c r="I32" s="11"/>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10">
@@ -2686,7 +3022,7 @@
       </c>
       <c r="F33" s="6"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="14"/>
+      <c r="I33" s="12"/>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10">
@@ -2707,7 +3043,7 @@
       </c>
       <c r="F34" s="6"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="13"/>
+      <c r="I34" s="11"/>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10">
@@ -2728,7 +3064,7 @@
       </c>
       <c r="F35" s="6"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="14"/>
+      <c r="I35" s="12"/>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10">
@@ -2749,7 +3085,7 @@
       </c>
       <c r="F36" s="7"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="12"/>
+      <c r="I36" s="11"/>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10">
@@ -2770,7 +3106,7 @@
       </c>
       <c r="F37" s="6"/>
       <c r="H37" s="2"/>
-      <c r="I37" s="12"/>
+      <c r="I37" s="11"/>
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10">
@@ -2791,7 +3127,7 @@
       </c>
       <c r="F38" s="7"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="12"/>
+      <c r="I38" s="11"/>
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10">
@@ -2812,7 +3148,7 @@
       </c>
       <c r="F39" s="6"/>
       <c r="H39" s="2"/>
-      <c r="I39" s="13"/>
+      <c r="I39" s="11"/>
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10">
@@ -2833,7 +3169,7 @@
       </c>
       <c r="F40" s="6"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="14"/>
+      <c r="I40" s="12"/>
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10">
@@ -2854,7 +3190,7 @@
       </c>
       <c r="F41" s="7"/>
       <c r="H41" s="2"/>
-      <c r="I41" s="13"/>
+      <c r="I41" s="11"/>
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10">
@@ -2875,7 +3211,7 @@
       </c>
       <c r="F42" s="6"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="14"/>
+      <c r="I42" s="12"/>
       <c r="J42" s="2"/>
     </row>
     <row r="43" spans="1:10">
@@ -2896,7 +3232,7 @@
       </c>
       <c r="F43" s="6"/>
       <c r="H43" s="2"/>
-      <c r="I43" s="16"/>
+      <c r="I43" s="12"/>
       <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10">
@@ -2917,7 +3253,7 @@
       </c>
       <c r="F44" s="7"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="12"/>
+      <c r="I44" s="11"/>
       <c r="J44" s="2"/>
     </row>
     <row r="45" spans="1:10">
@@ -2938,7 +3274,7 @@
       </c>
       <c r="F45" s="7"/>
       <c r="H45" s="2"/>
-      <c r="I45" s="12"/>
+      <c r="I45" s="11"/>
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10">
@@ -2959,7 +3295,7 @@
       </c>
       <c r="F46" s="7"/>
       <c r="H46" s="2"/>
-      <c r="I46" s="12"/>
+      <c r="I46" s="11"/>
       <c r="J46" s="2"/>
     </row>
     <row r="47" spans="1:10">
@@ -2980,7 +3316,7 @@
       </c>
       <c r="F47" s="7"/>
       <c r="H47" s="2"/>
-      <c r="I47" s="12"/>
+      <c r="I47" s="11"/>
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10">
@@ -3001,7 +3337,7 @@
       </c>
       <c r="F48" s="7"/>
       <c r="H48" s="2"/>
-      <c r="I48" s="12"/>
+      <c r="I48" s="11"/>
       <c r="J48" s="2"/>
     </row>
     <row r="49" spans="1:10">
@@ -3022,7 +3358,7 @@
       </c>
       <c r="F49" s="6"/>
       <c r="H49" s="2"/>
-      <c r="I49" s="14"/>
+      <c r="I49" s="12"/>
       <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:10">
@@ -3043,7 +3379,7 @@
       </c>
       <c r="F50" s="7"/>
       <c r="H50" s="2"/>
-      <c r="I50" s="15"/>
+      <c r="I50" s="11"/>
       <c r="J50" s="2"/>
     </row>
     <row r="51" spans="1:10">
@@ -3064,7 +3400,7 @@
       </c>
       <c r="F51" s="6"/>
       <c r="H51" s="2"/>
-      <c r="I51" s="12"/>
+      <c r="I51" s="11"/>
       <c r="J51" s="2"/>
     </row>
     <row r="52" spans="1:10">
@@ -3085,7 +3421,7 @@
       </c>
       <c r="F52" s="7"/>
       <c r="H52" s="2"/>
-      <c r="I52" s="12"/>
+      <c r="I52" s="11"/>
       <c r="J52" s="2"/>
     </row>
     <row r="53" spans="1:10">
@@ -3106,7 +3442,7 @@
       </c>
       <c r="F53" s="7"/>
       <c r="H53" s="2"/>
-      <c r="I53" s="12"/>
+      <c r="I53" s="11"/>
       <c r="J53" s="2"/>
     </row>
     <row r="54" spans="1:10">
@@ -3127,7 +3463,7 @@
       </c>
       <c r="F54" s="6"/>
       <c r="H54" s="2"/>
-      <c r="I54" s="14"/>
+      <c r="I54" s="12"/>
       <c r="J54" s="2"/>
     </row>
     <row r="55" spans="1:10">
@@ -3148,7 +3484,7 @@
       </c>
       <c r="F55" s="7"/>
       <c r="H55" s="2"/>
-      <c r="I55" s="15"/>
+      <c r="I55" s="11"/>
       <c r="J55" s="2"/>
     </row>
     <row r="56" spans="1:10">
@@ -3169,7 +3505,7 @@
       </c>
       <c r="F56" s="7"/>
       <c r="H56" s="2"/>
-      <c r="I56" s="12"/>
+      <c r="I56" s="11"/>
       <c r="J56" s="2"/>
     </row>
     <row r="57" spans="1:10">
@@ -3190,7 +3526,7 @@
       </c>
       <c r="F57" s="7"/>
       <c r="H57" s="2"/>
-      <c r="I57" s="12"/>
+      <c r="I57" s="11"/>
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="1:10">
@@ -3211,7 +3547,7 @@
       </c>
       <c r="F58" s="6"/>
       <c r="H58" s="2"/>
-      <c r="I58" s="14"/>
+      <c r="I58" s="12"/>
       <c r="J58" s="2"/>
     </row>
     <row r="59" spans="1:10">
@@ -3232,7 +3568,7 @@
       </c>
       <c r="F59" s="7"/>
       <c r="H59" s="2"/>
-      <c r="I59" s="15"/>
+      <c r="I59" s="11"/>
       <c r="J59" s="2"/>
     </row>
     <row r="60" spans="1:10">
@@ -3253,7 +3589,7 @@
       </c>
       <c r="F60" s="7"/>
       <c r="H60" s="2"/>
-      <c r="I60" s="12"/>
+      <c r="I60" s="11"/>
       <c r="J60" s="2"/>
     </row>
     <row r="61" spans="1:10">
@@ -3274,7 +3610,7 @@
       </c>
       <c r="F61" s="7"/>
       <c r="H61" s="2"/>
-      <c r="I61" s="12"/>
+      <c r="I61" s="11"/>
       <c r="J61" s="2"/>
     </row>
     <row r="62" spans="1:10">
@@ -3295,7 +3631,7 @@
       </c>
       <c r="F62" s="7"/>
       <c r="H62" s="2"/>
-      <c r="I62" s="12"/>
+      <c r="I62" s="11"/>
       <c r="J62" s="2"/>
     </row>
     <row r="63" spans="1:10">
@@ -3316,7 +3652,7 @@
       </c>
       <c r="F63" s="6"/>
       <c r="H63" s="2"/>
-      <c r="I63" s="14"/>
+      <c r="I63" s="12"/>
       <c r="J63" s="2"/>
     </row>
     <row r="64" spans="1:10">
@@ -3337,7 +3673,7 @@
       </c>
       <c r="F64" s="7"/>
       <c r="H64" s="2"/>
-      <c r="I64" s="13"/>
+      <c r="I64" s="11"/>
       <c r="J64" s="2"/>
     </row>
     <row r="65" spans="1:10">
@@ -3358,28 +3694,28 @@
       </c>
       <c r="F65" s="7"/>
       <c r="H65" s="2"/>
-      <c r="I65" s="12"/>
+      <c r="I65" s="11"/>
       <c r="J65" s="2"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
       <c r="H66" s="2"/>
-      <c r="I66" s="12"/>
+      <c r="I66" s="11"/>
       <c r="J66" s="2"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="G67" s="17"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="G67" s="13"/>
       <c r="H67" s="2"/>
-      <c r="I67" s="12"/>
+      <c r="I67" s="11"/>
       <c r="J67" s="2"/>
     </row>
     <row r="68" spans="3:10">
@@ -3387,14 +3723,14 @@
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="H68" s="2"/>
-      <c r="I68" s="12"/>
+      <c r="I68" s="11"/>
       <c r="J68" s="2"/>
     </row>
     <row r="69" spans="9:9">
-      <c r="I69" s="18"/>
+      <c r="I69" s="14"/>
     </row>
     <row r="70" spans="9:9">
-      <c r="I70" s="18"/>
+      <c r="I70" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
